--- a/AllPokemon.xlsx
+++ b/AllPokemon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gappsyrdsbca-my.sharepoint.com/personal/340990282_gapps_yrdsb_ca/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raygu\git\ICS4UCulminating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="8_{69098966-E58A-4DD3-99D3-044D23466066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{425090CC-6D20-4C7F-9E4D-3CE1B56AF52E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA817070-D38E-4E0D-8801-352FEC3355FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31643998-DDA8-4538-A96E-B180BD49CE9B}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -294,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,12 +312,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -331,18 +326,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF404040"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -360,21 +349,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF383838"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF383838"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF383838"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF383838"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -389,22 +363,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -724,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFCAE58-A354-4C1A-B505-D6D7248C943E}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,22 +760,22 @@
       <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>45</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>49</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>49</v>
       </c>
-      <c r="G2" s="4">
-        <v>65</v>
-      </c>
-      <c r="H2" s="4">
-        <v>65</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="G2" s="3">
+        <v>65</v>
+      </c>
+      <c r="H2" s="3">
+        <v>65</v>
+      </c>
+      <c r="I2" s="3">
         <v>45</v>
       </c>
     </row>
@@ -802,22 +789,22 @@
       <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>60</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>62</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>63</v>
       </c>
-      <c r="G3" s="4">
-        <v>80</v>
-      </c>
-      <c r="H3" s="4">
-        <v>80</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="G3" s="3">
+        <v>80</v>
+      </c>
+      <c r="H3" s="3">
+        <v>80</v>
+      </c>
+      <c r="I3" s="3">
         <v>60</v>
       </c>
     </row>
@@ -831,22 +818,22 @@
       <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="4">
-        <v>80</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="3">
+        <v>80</v>
+      </c>
+      <c r="E4" s="3">
         <v>82</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>83</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>100</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>100</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>80</v>
       </c>
     </row>
@@ -857,22 +844,22 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>39</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>52</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>43</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>60</v>
       </c>
-      <c r="H5" s="4">
-        <v>50</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="H5" s="3">
+        <v>50</v>
+      </c>
+      <c r="I5" s="3">
         <v>65</v>
       </c>
     </row>
@@ -883,22 +870,22 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>58</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>64</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>58</v>
       </c>
-      <c r="G6" s="4">
-        <v>80</v>
-      </c>
-      <c r="H6" s="4">
-        <v>65</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="G6" s="3">
+        <v>80</v>
+      </c>
+      <c r="H6" s="3">
+        <v>65</v>
+      </c>
+      <c r="I6" s="3">
         <v>80</v>
       </c>
     </row>
@@ -912,22 +899,22 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>78</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>84</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>78</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>109</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>85</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>100</v>
       </c>
     </row>
@@ -938,22 +925,22 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>44</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>48</v>
       </c>
-      <c r="F8" s="4">
-        <v>65</v>
-      </c>
-      <c r="G8" s="4">
-        <v>50</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="F8" s="3">
+        <v>65</v>
+      </c>
+      <c r="G8" s="3">
+        <v>50</v>
+      </c>
+      <c r="H8" s="3">
         <v>64</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>43</v>
       </c>
     </row>
@@ -964,22 +951,22 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>59</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>63</v>
       </c>
-      <c r="F9" s="4">
-        <v>80</v>
-      </c>
-      <c r="G9" s="4">
-        <v>65</v>
-      </c>
-      <c r="H9" s="4">
-        <v>80</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="F9" s="3">
+        <v>80</v>
+      </c>
+      <c r="G9" s="3">
+        <v>65</v>
+      </c>
+      <c r="H9" s="3">
+        <v>80</v>
+      </c>
+      <c r="I9" s="3">
         <v>58</v>
       </c>
     </row>
@@ -990,22 +977,22 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>79</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>83</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>85</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>105</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>78</v>
       </c>
     </row>
@@ -1019,22 +1006,22 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4">
-        <v>40</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="3">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3">
         <v>45</v>
       </c>
-      <c r="F11" s="4">
-        <v>40</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="F11" s="3">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3">
         <v>35</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>35</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>56</v>
       </c>
     </row>
@@ -1048,22 +1035,22 @@
       <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>63</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>60</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>55</v>
       </c>
-      <c r="G12" s="5">
-        <v>50</v>
-      </c>
-      <c r="H12" s="5">
-        <v>50</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="G12" s="4">
+        <v>50</v>
+      </c>
+      <c r="H12" s="4">
+        <v>50</v>
+      </c>
+      <c r="I12" s="4">
         <v>71</v>
       </c>
     </row>
@@ -1077,22 +1064,22 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>83</v>
       </c>
-      <c r="E13" s="5">
-        <v>80</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="E13" s="4">
+        <v>80</v>
+      </c>
+      <c r="F13" s="4">
         <v>75</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>70</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>70</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>101</v>
       </c>
     </row>
@@ -1103,22 +1090,22 @@
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>30</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>56</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>35</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>25</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>35</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>72</v>
       </c>
     </row>
@@ -1129,22 +1116,22 @@
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>55</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>81</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>60</v>
       </c>
-      <c r="G15" s="5">
-        <v>50</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G15" s="4">
+        <v>50</v>
+      </c>
+      <c r="H15" s="4">
         <v>70</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>97</v>
       </c>
     </row>
@@ -1155,22 +1142,22 @@
       <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>35</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>60</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>44</v>
       </c>
-      <c r="G16" s="5">
-        <v>40</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="G16" s="4">
+        <v>40</v>
+      </c>
+      <c r="H16" s="4">
         <v>54</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>55</v>
       </c>
     </row>
@@ -1181,22 +1168,22 @@
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>60</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>95</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>69</v>
       </c>
-      <c r="G17" s="5">
-        <v>65</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="G17" s="4">
+        <v>65</v>
+      </c>
+      <c r="H17" s="4">
         <v>79</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>80</v>
       </c>
     </row>
@@ -1207,22 +1194,22 @@
       <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>35</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>55</v>
       </c>
-      <c r="F18" s="5">
-        <v>40</v>
-      </c>
-      <c r="G18" s="5">
-        <v>50</v>
-      </c>
-      <c r="H18" s="5">
-        <v>50</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="F18" s="4">
+        <v>40</v>
+      </c>
+      <c r="G18" s="4">
+        <v>50</v>
+      </c>
+      <c r="H18" s="4">
+        <v>50</v>
+      </c>
+      <c r="I18" s="4">
         <v>90</v>
       </c>
     </row>
@@ -1233,22 +1220,22 @@
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>60</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>90</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>55</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>90</v>
       </c>
-      <c r="H19" s="5">
-        <v>80</v>
-      </c>
-      <c r="I19" s="5">
+      <c r="H19" s="4">
+        <v>80</v>
+      </c>
+      <c r="I19" s="4">
         <v>110</v>
       </c>
     </row>
@@ -1259,22 +1246,22 @@
       <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="5">
-        <v>50</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="4">
+        <v>50</v>
+      </c>
+      <c r="E20" s="4">
         <v>75</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>85</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>20</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>30</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>40</v>
       </c>
     </row>
@@ -1285,48 +1272,48 @@
       <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>75</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>100</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>110</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>45</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>55</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>55</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>47</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>52</v>
       </c>
-      <c r="G22" s="5">
-        <v>40</v>
-      </c>
-      <c r="H22" s="5">
-        <v>40</v>
-      </c>
-      <c r="I22" s="5">
+      <c r="G22" s="4">
+        <v>40</v>
+      </c>
+      <c r="H22" s="4">
+        <v>40</v>
+      </c>
+      <c r="I22" s="4">
         <v>41</v>
       </c>
     </row>
@@ -1337,22 +1324,22 @@
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>70</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>62</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>67</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>55</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>55</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>56</v>
       </c>
     </row>
@@ -1366,48 +1353,48 @@
       <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>90</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>92</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>87</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="4">
         <v>75</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>85</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>46</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>57</v>
       </c>
-      <c r="F25" s="5">
-        <v>40</v>
-      </c>
-      <c r="G25" s="5">
-        <v>40</v>
-      </c>
-      <c r="H25" s="5">
-        <v>40</v>
-      </c>
-      <c r="I25" s="5">
+      <c r="F25" s="4">
+        <v>40</v>
+      </c>
+      <c r="G25" s="4">
+        <v>40</v>
+      </c>
+      <c r="H25" s="4">
+        <v>40</v>
+      </c>
+      <c r="I25" s="4">
         <v>50</v>
       </c>
     </row>
@@ -1418,22 +1405,22 @@
       <c r="B26" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>61</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>72</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>57</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>55</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>55</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <v>65</v>
       </c>
     </row>
@@ -1447,22 +1434,22 @@
       <c r="C27" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>81</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>102</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>77</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>85</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <v>75</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <v>85</v>
       </c>
     </row>
@@ -1473,22 +1460,22 @@
       <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>38</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>41</v>
       </c>
-      <c r="F28" s="5">
-        <v>40</v>
-      </c>
-      <c r="G28" s="5">
-        <v>50</v>
-      </c>
-      <c r="H28" s="5">
-        <v>65</v>
-      </c>
-      <c r="I28" s="5">
+      <c r="F28" s="4">
+        <v>40</v>
+      </c>
+      <c r="G28" s="4">
+        <v>50</v>
+      </c>
+      <c r="H28" s="4">
+        <v>65</v>
+      </c>
+      <c r="I28" s="4">
         <v>65</v>
       </c>
     </row>
@@ -1499,22 +1486,22 @@
       <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>73</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>76</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>75</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>81</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>100</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <v>100</v>
       </c>
     </row>
@@ -1525,22 +1512,22 @@
       <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="5">
-        <v>40</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="D30" s="4">
+        <v>40</v>
+      </c>
+      <c r="E30" s="4">
         <v>45</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>35</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>30</v>
       </c>
-      <c r="H30" s="5">
-        <v>40</v>
-      </c>
-      <c r="I30" s="5">
+      <c r="H30" s="4">
+        <v>40</v>
+      </c>
+      <c r="I30" s="4">
         <v>55</v>
       </c>
     </row>
@@ -1551,22 +1538,22 @@
       <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>75</v>
       </c>
-      <c r="E31" s="5">
-        <v>80</v>
-      </c>
-      <c r="F31" s="5">
+      <c r="E31" s="4">
+        <v>80</v>
+      </c>
+      <c r="F31" s="4">
         <v>70</v>
       </c>
-      <c r="G31" s="5">
-        <v>65</v>
-      </c>
-      <c r="H31" s="5">
+      <c r="G31" s="4">
+        <v>65</v>
+      </c>
+      <c r="H31" s="4">
         <v>75</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <v>90</v>
       </c>
     </row>
@@ -1580,22 +1567,22 @@
       <c r="C32" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>45</v>
       </c>
-      <c r="E32" s="5">
-        <v>50</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="E32" s="4">
+        <v>50</v>
+      </c>
+      <c r="F32" s="4">
         <v>55</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>75</v>
       </c>
-      <c r="H32" s="5">
-        <v>65</v>
-      </c>
-      <c r="I32" s="5">
+      <c r="H32" s="4">
+        <v>65</v>
+      </c>
+      <c r="I32" s="4">
         <v>30</v>
       </c>
     </row>
@@ -1609,22 +1596,22 @@
       <c r="C33" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>60</v>
       </c>
-      <c r="E33" s="5">
-        <v>65</v>
-      </c>
-      <c r="F33" s="5">
+      <c r="E33" s="4">
+        <v>65</v>
+      </c>
+      <c r="F33" s="4">
         <v>70</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <v>85</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>75</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <v>40</v>
       </c>
     </row>
@@ -1638,22 +1625,22 @@
       <c r="C34" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>75</v>
       </c>
-      <c r="E34" s="5">
-        <v>80</v>
-      </c>
-      <c r="F34" s="5">
+      <c r="E34" s="4">
+        <v>80</v>
+      </c>
+      <c r="F34" s="4">
         <v>85</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <v>110</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>90</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <v>50</v>
       </c>
     </row>
@@ -1664,22 +1651,22 @@
       <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>10</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>55</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>25</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <v>35</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <v>45</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <v>95</v>
       </c>
     </row>
@@ -1690,22 +1677,22 @@
       <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>35</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>100</v>
       </c>
-      <c r="F36" s="5">
-        <v>50</v>
-      </c>
-      <c r="G36" s="5">
-        <v>50</v>
-      </c>
-      <c r="H36" s="5">
+      <c r="F36" s="4">
+        <v>50</v>
+      </c>
+      <c r="G36" s="4">
+        <v>50</v>
+      </c>
+      <c r="H36" s="4">
         <v>70</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="4">
         <v>120</v>
       </c>
     </row>
@@ -1716,22 +1703,22 @@
       <c r="B37" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="5">
-        <v>40</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="D37" s="4">
+        <v>40</v>
+      </c>
+      <c r="E37" s="4">
         <v>45</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>35</v>
       </c>
-      <c r="G37" s="5">
-        <v>40</v>
-      </c>
-      <c r="H37" s="5">
-        <v>40</v>
-      </c>
-      <c r="I37" s="5">
+      <c r="G37" s="4">
+        <v>40</v>
+      </c>
+      <c r="H37" s="4">
+        <v>40</v>
+      </c>
+      <c r="I37" s="4">
         <v>90</v>
       </c>
     </row>
@@ -1742,22 +1729,22 @@
       <c r="B38" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="5">
-        <v>65</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="D38" s="4">
+        <v>65</v>
+      </c>
+      <c r="E38" s="4">
         <v>70</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>60</v>
       </c>
-      <c r="G38" s="5">
-        <v>65</v>
-      </c>
-      <c r="H38" s="5">
-        <v>65</v>
-      </c>
-      <c r="I38" s="5">
+      <c r="G38" s="4">
+        <v>65</v>
+      </c>
+      <c r="H38" s="4">
+        <v>65</v>
+      </c>
+      <c r="I38" s="4">
         <v>115</v>
       </c>
     </row>
@@ -1768,22 +1755,22 @@
       <c r="B39" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="5">
-        <v>50</v>
-      </c>
-      <c r="E39" s="5">
+      <c r="D39" s="4">
+        <v>50</v>
+      </c>
+      <c r="E39" s="4">
         <v>52</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <v>48</v>
       </c>
-      <c r="G39" s="5">
-        <v>65</v>
-      </c>
-      <c r="H39" s="5">
-        <v>50</v>
-      </c>
-      <c r="I39" s="5">
+      <c r="G39" s="4">
+        <v>65</v>
+      </c>
+      <c r="H39" s="4">
+        <v>50</v>
+      </c>
+      <c r="I39" s="4">
         <v>55</v>
       </c>
     </row>
@@ -1794,22 +1781,22 @@
       <c r="B40" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="5">
-        <v>80</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="D40" s="4">
+        <v>80</v>
+      </c>
+      <c r="E40" s="4">
         <v>82</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>78</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="4">
         <v>95</v>
       </c>
-      <c r="H40" s="5">
-        <v>80</v>
-      </c>
-      <c r="I40" s="5">
+      <c r="H40" s="4">
+        <v>80</v>
+      </c>
+      <c r="I40" s="4">
         <v>85</v>
       </c>
     </row>
@@ -1820,22 +1807,22 @@
       <c r="B41" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="5">
-        <v>40</v>
-      </c>
-      <c r="E41" s="5">
-        <v>80</v>
-      </c>
-      <c r="F41" s="5">
+      <c r="D41" s="4">
+        <v>40</v>
+      </c>
+      <c r="E41" s="4">
+        <v>80</v>
+      </c>
+      <c r="F41" s="4">
         <v>35</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="4">
         <v>35</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="4">
         <v>45</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="4">
         <v>70</v>
       </c>
     </row>
@@ -1846,22 +1833,22 @@
       <c r="B42" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="5">
-        <v>65</v>
-      </c>
-      <c r="E42" s="5">
+      <c r="D42" s="4">
+        <v>65</v>
+      </c>
+      <c r="E42" s="4">
         <v>105</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <v>60</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="4">
         <v>60</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="4">
         <v>70</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="4">
         <v>95</v>
       </c>
     </row>
@@ -1872,22 +1859,22 @@
       <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>55</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>70</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <v>45</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <v>70</v>
       </c>
-      <c r="H43" s="5">
-        <v>50</v>
-      </c>
-      <c r="I43" s="5">
+      <c r="H43" s="4">
+        <v>50</v>
+      </c>
+      <c r="I43" s="4">
         <v>60</v>
       </c>
     </row>
@@ -1898,22 +1885,22 @@
       <c r="B44" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>90</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>110</v>
       </c>
-      <c r="F44" s="5">
-        <v>80</v>
-      </c>
-      <c r="G44" s="5">
+      <c r="F44" s="4">
+        <v>80</v>
+      </c>
+      <c r="G44" s="4">
         <v>100</v>
       </c>
-      <c r="H44" s="5">
-        <v>80</v>
-      </c>
-      <c r="I44" s="5">
+      <c r="H44" s="4">
+        <v>80</v>
+      </c>
+      <c r="I44" s="4">
         <v>95</v>
       </c>
     </row>
@@ -1924,22 +1911,22 @@
       <c r="B45" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="5">
-        <v>40</v>
-      </c>
-      <c r="E45" s="5">
-        <v>50</v>
-      </c>
-      <c r="F45" s="5">
-        <v>40</v>
-      </c>
-      <c r="G45" s="5">
-        <v>40</v>
-      </c>
-      <c r="H45" s="5">
-        <v>40</v>
-      </c>
-      <c r="I45" s="5">
+      <c r="D45" s="4">
+        <v>40</v>
+      </c>
+      <c r="E45" s="4">
+        <v>50</v>
+      </c>
+      <c r="F45" s="4">
+        <v>40</v>
+      </c>
+      <c r="G45" s="4">
+        <v>40</v>
+      </c>
+      <c r="H45" s="4">
+        <v>40</v>
+      </c>
+      <c r="I45" s="4">
         <v>90</v>
       </c>
     </row>
@@ -1950,22 +1937,22 @@
       <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="5">
-        <v>65</v>
-      </c>
-      <c r="E46" s="5">
-        <v>65</v>
-      </c>
-      <c r="F46" s="5">
-        <v>65</v>
-      </c>
-      <c r="G46" s="5">
-        <v>50</v>
-      </c>
-      <c r="H46" s="5">
-        <v>50</v>
-      </c>
-      <c r="I46" s="5">
+      <c r="D46" s="4">
+        <v>65</v>
+      </c>
+      <c r="E46" s="4">
+        <v>65</v>
+      </c>
+      <c r="F46" s="4">
+        <v>65</v>
+      </c>
+      <c r="G46" s="4">
+        <v>50</v>
+      </c>
+      <c r="H46" s="4">
+        <v>50</v>
+      </c>
+      <c r="I46" s="4">
         <v>90</v>
       </c>
     </row>
@@ -1979,22 +1966,22 @@
       <c r="C47" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>90</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>95</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <v>95</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="4">
         <v>70</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="4">
         <v>90</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="4">
         <v>70</v>
       </c>
     </row>
@@ -2005,22 +1992,22 @@
       <c r="B48" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>70</v>
       </c>
-      <c r="E48" s="5">
-        <v>80</v>
-      </c>
-      <c r="F48" s="5">
-        <v>50</v>
-      </c>
-      <c r="G48" s="5">
+      <c r="E48" s="4">
+        <v>80</v>
+      </c>
+      <c r="F48" s="4">
+        <v>50</v>
+      </c>
+      <c r="G48" s="4">
         <v>35</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="4">
         <v>35</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="4">
         <v>35</v>
       </c>
     </row>
@@ -2031,26 +2018,26 @@
       <c r="B49" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="5">
-        <v>80</v>
-      </c>
-      <c r="E49" s="5">
+      <c r="D49" s="4">
+        <v>80</v>
+      </c>
+      <c r="E49" s="4">
         <v>100</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <v>70</v>
       </c>
-      <c r="G49" s="5">
-        <v>50</v>
-      </c>
-      <c r="H49" s="5">
+      <c r="G49" s="4">
+        <v>50</v>
+      </c>
+      <c r="H49" s="4">
         <v>60</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>66</v>
       </c>
@@ -2076,7 +2063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -2086,26 +2073,26 @@
       <c r="C51" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="2">
-        <v>40</v>
-      </c>
-      <c r="E51" s="2">
-        <v>40</v>
-      </c>
-      <c r="F51" s="2">
+      <c r="D51" s="4">
+        <v>40</v>
+      </c>
+      <c r="E51" s="4">
+        <v>40</v>
+      </c>
+      <c r="F51" s="4">
         <v>35</v>
       </c>
-      <c r="G51" s="2">
-        <v>50</v>
-      </c>
-      <c r="H51" s="2">
+      <c r="G51" s="4">
+        <v>50</v>
+      </c>
+      <c r="H51" s="4">
         <v>100</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -2115,390 +2102,390 @@
       <c r="C52" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="2">
-        <v>80</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="D52" s="4">
+        <v>80</v>
+      </c>
+      <c r="E52" s="4">
         <v>70</v>
       </c>
-      <c r="F52" s="2">
-        <v>65</v>
-      </c>
-      <c r="G52" s="2">
-        <v>80</v>
-      </c>
-      <c r="H52" s="2">
+      <c r="F52" s="4">
+        <v>65</v>
+      </c>
+      <c r="G52" s="4">
+        <v>80</v>
+      </c>
+      <c r="H52" s="4">
         <v>120</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>69</v>
       </c>
       <c r="B53" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="2">
-        <v>80</v>
-      </c>
-      <c r="E53" s="2">
-        <v>80</v>
-      </c>
-      <c r="F53" s="2">
-        <v>50</v>
-      </c>
-      <c r="G53" s="2">
-        <v>40</v>
-      </c>
-      <c r="H53" s="2">
-        <v>50</v>
-      </c>
-      <c r="I53" s="2">
+      <c r="D53" s="4">
+        <v>80</v>
+      </c>
+      <c r="E53" s="4">
+        <v>80</v>
+      </c>
+      <c r="F53" s="4">
+        <v>50</v>
+      </c>
+      <c r="G53" s="4">
+        <v>40</v>
+      </c>
+      <c r="H53" s="4">
+        <v>50</v>
+      </c>
+      <c r="I53" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>70</v>
       </c>
       <c r="B54" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="4">
         <v>105</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="4">
         <v>105</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="4">
         <v>75</v>
       </c>
-      <c r="G54" s="2">
-        <v>65</v>
-      </c>
-      <c r="H54" s="2">
+      <c r="G54" s="4">
+        <v>65</v>
+      </c>
+      <c r="H54" s="4">
         <v>100</v>
       </c>
-      <c r="I54" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I54" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>71</v>
       </c>
       <c r="B55" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="2">
-        <v>40</v>
-      </c>
-      <c r="E55" s="2">
+      <c r="D55" s="4">
+        <v>40</v>
+      </c>
+      <c r="E55" s="4">
         <v>30</v>
       </c>
-      <c r="F55" s="2">
-        <v>50</v>
-      </c>
-      <c r="G55" s="2">
+      <c r="F55" s="4">
+        <v>50</v>
+      </c>
+      <c r="G55" s="4">
         <v>55</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="4">
         <v>55</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>72</v>
       </c>
       <c r="B56" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="4">
         <v>60</v>
       </c>
-      <c r="E56" s="2">
-        <v>50</v>
-      </c>
-      <c r="F56" s="2">
+      <c r="E56" s="4">
+        <v>50</v>
+      </c>
+      <c r="F56" s="4">
         <v>70</v>
       </c>
-      <c r="G56" s="2">
-        <v>80</v>
-      </c>
-      <c r="H56" s="2">
-        <v>80</v>
-      </c>
-      <c r="I56" s="2">
+      <c r="G56" s="4">
+        <v>80</v>
+      </c>
+      <c r="H56" s="4">
+        <v>80</v>
+      </c>
+      <c r="I56" s="4">
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>73</v>
       </c>
       <c r="B57" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="2">
-        <v>50</v>
-      </c>
-      <c r="E57" s="2">
-        <v>50</v>
-      </c>
-      <c r="F57" s="2">
+      <c r="D57" s="4">
+        <v>50</v>
+      </c>
+      <c r="E57" s="4">
+        <v>50</v>
+      </c>
+      <c r="F57" s="4">
         <v>95</v>
       </c>
-      <c r="G57" s="2">
-        <v>40</v>
-      </c>
-      <c r="H57" s="2">
-        <v>50</v>
-      </c>
-      <c r="I57" s="2">
+      <c r="G57" s="4">
+        <v>40</v>
+      </c>
+      <c r="H57" s="4">
+        <v>50</v>
+      </c>
+      <c r="I57" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>74</v>
       </c>
       <c r="B58" t="s">
         <v>31</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="4">
         <v>60</v>
       </c>
-      <c r="E58" s="2">
-        <v>80</v>
-      </c>
-      <c r="F58" s="2">
+      <c r="E58" s="4">
+        <v>80</v>
+      </c>
+      <c r="F58" s="4">
         <v>110</v>
       </c>
-      <c r="G58" s="2">
-        <v>50</v>
-      </c>
-      <c r="H58" s="2">
-        <v>80</v>
-      </c>
-      <c r="I58" s="2">
+      <c r="G58" s="4">
+        <v>50</v>
+      </c>
+      <c r="H58" s="4">
+        <v>80</v>
+      </c>
+      <c r="I58" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>75</v>
       </c>
       <c r="B59" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="2">
-        <v>50</v>
-      </c>
-      <c r="E59" s="2">
+      <c r="D59" s="4">
+        <v>50</v>
+      </c>
+      <c r="E59" s="4">
         <v>120</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="4">
         <v>53</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="4">
         <v>35</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="4">
         <v>110</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="4">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>76</v>
       </c>
       <c r="B60" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="2">
-        <v>50</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="D60" s="4">
+        <v>50</v>
+      </c>
+      <c r="E60" s="4">
         <v>105</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="4">
         <v>79</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="4">
         <v>35</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="4">
         <v>110</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="4">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>77</v>
       </c>
       <c r="B61" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="2">
-        <v>40</v>
-      </c>
-      <c r="E61" s="2">
-        <v>65</v>
-      </c>
-      <c r="F61" s="2">
+      <c r="D61" s="4">
+        <v>40</v>
+      </c>
+      <c r="E61" s="4">
+        <v>65</v>
+      </c>
+      <c r="F61" s="4">
         <v>95</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="4">
         <v>60</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="4">
         <v>45</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>78</v>
       </c>
       <c r="B62" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="2">
-        <v>65</v>
-      </c>
-      <c r="E62" s="2">
+      <c r="D62" s="4">
+        <v>65</v>
+      </c>
+      <c r="E62" s="4">
         <v>90</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="4">
         <v>120</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="4">
         <v>85</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="4">
         <v>70</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>79</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="2">
-        <v>65</v>
-      </c>
-      <c r="E63" s="2">
+      <c r="D63" s="4">
+        <v>65</v>
+      </c>
+      <c r="E63" s="4">
         <v>55</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="4">
         <v>115</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="4">
         <v>100</v>
       </c>
-      <c r="H63" s="2">
-        <v>40</v>
-      </c>
-      <c r="I63" s="2">
+      <c r="H63" s="4">
+        <v>40</v>
+      </c>
+      <c r="I63" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>80</v>
       </c>
       <c r="B64" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="2">
-        <v>65</v>
-      </c>
-      <c r="E64" s="2">
+      <c r="D64" s="4">
+        <v>65</v>
+      </c>
+      <c r="E64" s="4">
         <v>83</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="4">
         <v>57</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="4">
         <v>95</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="4">
         <v>85</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>81</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="2">
-        <v>65</v>
-      </c>
-      <c r="E65" s="2">
+      <c r="D65" s="4">
+        <v>65</v>
+      </c>
+      <c r="E65" s="4">
         <v>95</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="4">
         <v>57</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="4">
         <v>100</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="4">
         <v>85</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="4">
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>82</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="4">
         <v>20</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="4">
         <v>10</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="4">
         <v>55</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="4">
         <v>15</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="4">
         <v>20</v>
       </c>
-      <c r="I66" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I66" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>83</v>
       </c>
@@ -2508,22 +2495,22 @@
       <c r="C67" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="4">
         <v>95</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="4">
         <v>125</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="4">
         <v>79</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="4">
         <v>60</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="4">
         <v>100</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="4">
         <v>81</v>
       </c>
     </row>

--- a/AllPokemon.xlsx
+++ b/AllPokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raygu\git\ICS4UCulminating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA817070-D38E-4E0D-8801-352FEC3355FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02508E7-8258-43D3-A21B-FF5CB6E33B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31643998-DDA8-4538-A96E-B180BD49CE9B}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="76">
   <si>
     <t>Charmander</t>
   </si>
@@ -192,15 +191,6 @@
     <t>Golduck</t>
   </si>
   <si>
-    <t>Mankey</t>
-  </si>
-  <si>
-    <t>Primeape</t>
-  </si>
-  <si>
-    <t>Fighting</t>
-  </si>
-  <si>
     <t>Growlithe</t>
   </si>
   <si>
@@ -231,15 +221,6 @@
     <t>Vileplume</t>
   </si>
   <si>
-    <t>Machop</t>
-  </si>
-  <si>
-    <t>Machoke</t>
-  </si>
-  <si>
-    <t>Machamp</t>
-  </si>
-  <si>
     <t>Tentacool</t>
   </si>
   <si>
@@ -262,12 +243,6 @@
   </si>
   <si>
     <t>Marowak</t>
-  </si>
-  <si>
-    <t>Hitmonlee</t>
-  </si>
-  <si>
-    <t>Hitmonchan</t>
   </si>
   <si>
     <t>Koffing</t>
@@ -340,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -363,25 +338,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -389,9 +351,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -709,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFCAE58-A354-4C1A-B505-D6D7248C943E}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1559,7 +1518,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1588,7 +1547,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1617,7 +1576,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1805,25 +1764,25 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D41" s="4">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E41" s="4">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F41" s="4">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G41" s="4">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H41" s="4">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I41" s="4">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1831,22 +1790,22 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D42" s="4">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E42" s="4">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F42" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G42" s="4">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H42" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I42" s="4">
         <v>95</v>
@@ -1854,146 +1813,149 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D43" s="4">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E43" s="4">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F43" s="4">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G43" s="4">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H43" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I43" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D44" s="4">
+        <v>65</v>
+      </c>
+      <c r="E44" s="4">
+        <v>65</v>
+      </c>
+      <c r="F44" s="4">
+        <v>65</v>
+      </c>
+      <c r="G44" s="4">
+        <v>50</v>
+      </c>
+      <c r="H44" s="4">
+        <v>50</v>
+      </c>
+      <c r="I44" s="4">
         <v>90</v>
-      </c>
-      <c r="E44" s="4">
-        <v>110</v>
-      </c>
-      <c r="F44" s="4">
-        <v>80</v>
-      </c>
-      <c r="G44" s="4">
-        <v>100</v>
-      </c>
-      <c r="H44" s="4">
-        <v>80</v>
-      </c>
-      <c r="I44" s="4">
-        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="4">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E45" s="4">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="F45" s="4">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="G45" s="4">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H45" s="4">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="I45" s="4">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
       <c r="D46" s="4">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E46" s="4">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F46" s="4">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G46" s="4">
         <v>50</v>
       </c>
       <c r="H46" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I46" s="4">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D47" s="4">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E47" s="4">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="F47" s="4">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="G47" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H47" s="4">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="I47" s="4">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D48" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E48" s="4">
         <v>80</v>
@@ -2002,515 +1964,327 @@
         <v>50</v>
       </c>
       <c r="G48" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H48" s="4">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I48" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D49" s="4">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="E49" s="4">
+        <v>105</v>
+      </c>
+      <c r="F49" s="4">
+        <v>75</v>
+      </c>
+      <c r="G49" s="4">
+        <v>65</v>
+      </c>
+      <c r="H49" s="4">
         <v>100</v>
       </c>
-      <c r="F49" s="4">
-        <v>70</v>
-      </c>
-      <c r="G49" s="4">
-        <v>50</v>
-      </c>
-      <c r="H49" s="4">
-        <v>60</v>
-      </c>
       <c r="I49" s="4">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="5">
-        <v>90</v>
-      </c>
-      <c r="E50" s="5">
-        <v>130</v>
-      </c>
-      <c r="F50" s="5">
-        <v>80</v>
-      </c>
-      <c r="G50" s="5">
-        <v>65</v>
-      </c>
-      <c r="H50" s="5">
-        <v>85</v>
-      </c>
-      <c r="I50" s="5">
+        <v>28</v>
+      </c>
+      <c r="D50" s="4">
+        <v>40</v>
+      </c>
+      <c r="E50" s="4">
+        <v>30</v>
+      </c>
+      <c r="F50" s="4">
+        <v>50</v>
+      </c>
+      <c r="G50" s="4">
         <v>55</v>
+      </c>
+      <c r="H50" s="4">
+        <v>55</v>
+      </c>
+      <c r="I50" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D51" s="4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E51" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F51" s="4">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="G51" s="4">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H51" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I51" s="4">
-        <v>70</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D52" s="4">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E52" s="4">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F52" s="4">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="G52" s="4">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H52" s="4">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="I52" s="4">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D53" s="4">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E53" s="4">
         <v>80</v>
       </c>
       <c r="F53" s="4">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G53" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H53" s="4">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I53" s="4">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="4">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="E54" s="4">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="F54" s="4">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G54" s="4">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H54" s="4">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="I54" s="4">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D55" s="4">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E55" s="4">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F55" s="4">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="G55" s="4">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="H55" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I55" s="4">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D56" s="4">
+        <v>65</v>
+      </c>
+      <c r="E56" s="4">
+        <v>55</v>
+      </c>
+      <c r="F56" s="4">
+        <v>115</v>
+      </c>
+      <c r="G56" s="4">
+        <v>100</v>
+      </c>
+      <c r="H56" s="4">
+        <v>40</v>
+      </c>
+      <c r="I56" s="4">
         <v>60</v>
-      </c>
-      <c r="E56" s="4">
-        <v>50</v>
-      </c>
-      <c r="F56" s="4">
-        <v>70</v>
-      </c>
-      <c r="G56" s="4">
-        <v>80</v>
-      </c>
-      <c r="H56" s="4">
-        <v>80</v>
-      </c>
-      <c r="I56" s="4">
-        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D57" s="4">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E57" s="4">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="F57" s="4">
+        <v>57</v>
+      </c>
+      <c r="G57" s="4">
         <v>95</v>
       </c>
-      <c r="G57" s="4">
-        <v>40</v>
-      </c>
       <c r="H57" s="4">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="I57" s="4">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D58" s="4">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E58" s="4">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F58" s="4">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="G58" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H58" s="4">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I58" s="4">
-        <v>45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D59" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E59" s="4">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="F59" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G59" s="4">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H59" s="4">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="I59" s="4">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
       </c>
       <c r="D60" s="4">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="E60" s="4">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F60" s="4">
         <v>79</v>
       </c>
       <c r="G60" s="4">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H60" s="4">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I60" s="4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="4">
-        <v>40</v>
-      </c>
-      <c r="E61" s="4">
-        <v>65</v>
-      </c>
-      <c r="F61" s="4">
-        <v>95</v>
-      </c>
-      <c r="G61" s="4">
-        <v>60</v>
-      </c>
-      <c r="H61" s="4">
-        <v>45</v>
-      </c>
-      <c r="I61" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="4">
-        <v>65</v>
-      </c>
-      <c r="E62" s="4">
-        <v>90</v>
-      </c>
-      <c r="F62" s="4">
-        <v>120</v>
-      </c>
-      <c r="G62" s="4">
-        <v>85</v>
-      </c>
-      <c r="H62" s="4">
-        <v>70</v>
-      </c>
-      <c r="I62" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="4">
-        <v>65</v>
-      </c>
-      <c r="E63" s="4">
-        <v>55</v>
-      </c>
-      <c r="F63" s="4">
-        <v>115</v>
-      </c>
-      <c r="G63" s="4">
-        <v>100</v>
-      </c>
-      <c r="H63" s="4">
-        <v>40</v>
-      </c>
-      <c r="I63" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="4">
-        <v>65</v>
-      </c>
-      <c r="E64" s="4">
-        <v>83</v>
-      </c>
-      <c r="F64" s="4">
-        <v>57</v>
-      </c>
-      <c r="G64" s="4">
-        <v>95</v>
-      </c>
-      <c r="H64" s="4">
-        <v>85</v>
-      </c>
-      <c r="I64" s="4">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="4">
-        <v>65</v>
-      </c>
-      <c r="E65" s="4">
-        <v>95</v>
-      </c>
-      <c r="F65" s="4">
-        <v>57</v>
-      </c>
-      <c r="G65" s="4">
-        <v>100</v>
-      </c>
-      <c r="H65" s="4">
-        <v>85</v>
-      </c>
-      <c r="I65" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="4">
-        <v>20</v>
-      </c>
-      <c r="E66" s="4">
-        <v>10</v>
-      </c>
-      <c r="F66" s="4">
-        <v>55</v>
-      </c>
-      <c r="G66" s="4">
-        <v>15</v>
-      </c>
-      <c r="H66" s="4">
-        <v>20</v>
-      </c>
-      <c r="I66" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="4">
-        <v>95</v>
-      </c>
-      <c r="E67" s="4">
-        <v>125</v>
-      </c>
-      <c r="F67" s="4">
-        <v>79</v>
-      </c>
-      <c r="G67" s="4">
-        <v>60</v>
-      </c>
-      <c r="H67" s="4">
-        <v>100</v>
-      </c>
-      <c r="I67" s="4">
         <v>81</v>
       </c>
     </row>
